--- a/toutiao-screen/src/main/resources/static/tpl.xlsx
+++ b/toutiao-screen/src/main/resources/static/tpl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maojian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\toutiao\toutiao-screen\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>match_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,17 +136,6 @@
   </si>
   <si>
     <t>sign_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JJX390iH</t>
-  </si>
-  <si>
-    <t>JJX390iH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JJX390iH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,13 +548,12 @@
     <col min="2" max="3" width="14.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,21 +576,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>18451391551</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>18451391551</v>
@@ -615,27 +596,24 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>18451391552</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>18451391552</v>
@@ -644,27 +622,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>18451391553</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>18451391553</v>
@@ -673,27 +648,24 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>18451391554</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>18451391554</v>
@@ -702,27 +674,24 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>18451391555</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>18451391555</v>
@@ -731,27 +700,24 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>18451391556</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>18451391556</v>
@@ -760,27 +726,24 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>18451391557</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>18451391557</v>
@@ -789,27 +752,24 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>18451391558</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>18451391558</v>
@@ -818,27 +778,24 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>18451391559</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>18451391559</v>
@@ -847,27 +804,24 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>18451391550</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>18451391550</v>
@@ -876,15 +830,12 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
         <v>1</v>
       </c>
     </row>
